--- a/results/mp/tinybert/corona/confidence/84/topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,18 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -73,115 +67,127 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>the</t>
@@ -542,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,49 +717,49 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="L5">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L5">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7467532467532467</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C6">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L6">
         <v>22</v>
       </c>
-      <c r="K6">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L6">
-        <v>11</v>
-      </c>
       <c r="M6">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7333333333333333</v>
+        <v>0.2189922480620155</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>403</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3928571428571428</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8627450980392157</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3819742489270386</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="C9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2441860465116279</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -979,119 +985,71 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>339</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="L10">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>32</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L11">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K10">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L10">
-        <v>41</v>
-      </c>
-      <c r="M10">
-        <v>41</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2125</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>63</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="L11">
-        <v>45</v>
-      </c>
-      <c r="M11">
-        <v>45</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1407407407407407</v>
-      </c>
-      <c r="C12">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>116</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,21 +1061,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.8046875</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1129,21 +1087,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1155,21 +1113,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1181,21 +1139,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7586206896551724</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1207,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7586206896551724</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1233,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.675</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1259,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7435897435897436</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1285,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7307692307692307</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1311,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.7123287671232876</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1337,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1363,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K23">
         <v>0.6</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1389,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5352480417754569</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1415,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5882352941176471</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1441,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5833333333333334</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1467,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5789473684210527</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L27">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1493,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5774647887323944</v>
+        <v>0.4610169491525424</v>
       </c>
       <c r="L28">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M28">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1519,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>90</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5277777777777778</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L29">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1545,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1571,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L31">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1597,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4642857142857143</v>
+        <v>0.3514644351464435</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1623,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4571428571428571</v>
+        <v>0.328125</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1649,21 +1607,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4418604651162791</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="L34">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1675,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>72</v>
+        <v>870</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.02416666666666667</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1701,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.3125</v>
+        <v>0.02330743618201998</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1727,111 +1685,215 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>880</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.2894736842105263</v>
+        <v>0.01925025329280649</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>968</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.02850877192982456</v>
+        <v>0.01215521271622253</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>443</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.0124777183600713</v>
+        <v>0.01086549269389284</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N39">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="O39">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>1108</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40">
+        <v>0.009422367882015567</v>
+      </c>
+      <c r="L40">
+        <v>23</v>
+      </c>
+      <c r="M40">
+        <v>27</v>
+      </c>
+      <c r="N40">
+        <v>0.85</v>
+      </c>
+      <c r="O40">
+        <v>0.15</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41">
+        <v>0.007626531083891842</v>
+      </c>
+      <c r="L41">
+        <v>33</v>
+      </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <v>0.97</v>
+      </c>
+      <c r="O41">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K40">
-        <v>0.005027652086475616</v>
-      </c>
-      <c r="L40">
-        <v>10</v>
-      </c>
-      <c r="M40">
-        <v>10</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>1979</v>
+      <c r="K42">
+        <v>0.007410374524334067</v>
+      </c>
+      <c r="L42">
+        <v>37</v>
+      </c>
+      <c r="M42">
+        <v>40</v>
+      </c>
+      <c r="N42">
+        <v>0.93</v>
+      </c>
+      <c r="O42">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43">
+        <v>0.00643915003219575</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>21</v>
+      </c>
+      <c r="N43">
+        <v>0.95</v>
+      </c>
+      <c r="O43">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44">
+        <v>0.00562015503875969</v>
+      </c>
+      <c r="L44">
+        <v>29</v>
+      </c>
+      <c r="M44">
+        <v>34</v>
+      </c>
+      <c r="N44">
+        <v>0.85</v>
+      </c>
+      <c r="O44">
+        <v>0.15</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>5131</v>
       </c>
     </row>
   </sheetData>
